--- a/data/trans_bre/MCS12_SP_R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.6880981621227744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.648769444353338</v>
+        <v>5.648769444353333</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2821092183749851</v>
@@ -649,7 +649,7 @@
         <v>0.03929529127084871</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3162788545205905</v>
+        <v>0.3162788545205902</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7242171369690135</v>
+        <v>-1.235018946709472</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1390414838754575</v>
+        <v>0.0576870915131751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.292522982669527</v>
+        <v>-4.389448348082832</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6693371256897047</v>
+        <v>0.8592887318369997</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03477290288379301</v>
+        <v>-0.06432818147135957</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.00958834762014717</v>
+        <v>-0.0001269739647251221</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2609915963923543</v>
+        <v>-0.2295510537578206</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.03732412933455032</v>
+        <v>0.04478629584014718</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.46492296502052</v>
+        <v>10.577943561625</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.28149133213681</v>
+        <v>12.60978732067482</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.323473981791544</v>
+        <v>6.3412418185539</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.1418301044592</v>
+        <v>10.06308480602337</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7697796257142577</v>
+        <v>0.7228654946380689</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9177477090396841</v>
+        <v>0.8668892647531616</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4360526129105781</v>
+        <v>0.4422597692652732</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6795738299904914</v>
+        <v>0.6805209567169723</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.549430067373323</v>
+        <v>5.825843376791518</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.496035625103604</v>
+        <v>4.337383942823011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.075150844288185</v>
+        <v>0.9591834389966623</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.231709609444078</v>
+        <v>4.177891966970287</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2854028092528463</v>
+        <v>0.3204604752138238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2175972322072707</v>
+        <v>0.1822997331243938</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05339505960957743</v>
+        <v>0.04904396042557906</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2329612472139585</v>
+        <v>0.2222355670648659</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.40163514774255</v>
+        <v>17.9047427060792</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.59954350734657</v>
+        <v>18.49820067421687</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.0887524843809</v>
+        <v>13.07438781392571</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.03597889238154</v>
+        <v>13.64934481877373</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.409889053858305</v>
+        <v>1.436028127892743</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.061849708294853</v>
+        <v>1.045520846314132</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9417441559277309</v>
+        <v>0.9595068678526394</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.021700479527052</v>
+        <v>1.001615310720944</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.553831700536119</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.373434012695899</v>
+        <v>2.373434012695896</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3968821793925414</v>
@@ -849,7 +849,7 @@
         <v>0.4437551700238631</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1020538819172309</v>
+        <v>0.1020538819172308</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.129374369548611</v>
+        <v>0.2850946799403028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9188778776031856</v>
+        <v>2.080234077912779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.008014881069687</v>
+        <v>2.112052167136947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.131704217753747</v>
+        <v>-4.311044684191637</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.007601238512330148</v>
+        <v>0.01644588666793496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03078272531955691</v>
+        <v>0.07608680531640673</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08069231279071724</v>
+        <v>0.07429643650016193</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1571894818960065</v>
+        <v>-0.1668309401774506</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.42374254855709</v>
+        <v>15.03119131850583</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.64033236394053</v>
+        <v>15.67397907249555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.96691809379743</v>
+        <v>19.39327999956247</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.803180280258941</v>
+        <v>9.557051927452481</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9792258994871257</v>
+        <v>0.9171055608180246</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6489623550337842</v>
+        <v>0.6744753016755104</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9415382196547074</v>
+        <v>0.9727650601693694</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4206658996057622</v>
+        <v>0.4658354506947572</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.645882029212588</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.559730098910592</v>
+        <v>4.559730098910594</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2178961582829357</v>
@@ -949,7 +949,7 @@
         <v>0.3345438511012775</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2188718871966197</v>
+        <v>0.2188718871966198</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.016854932552033</v>
+        <v>1.005556564241366</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.378328252788344</v>
+        <v>1.437235667931854</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.864716403536393</v>
+        <v>2.53263750679957</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.008458665685593</v>
+        <v>1.409153658055529</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04231981874117901</v>
+        <v>0.04165058644226106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05174336343961215</v>
+        <v>0.04168485206517987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.128574549922306</v>
+        <v>0.1127546195078466</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04091541583312813</v>
+        <v>0.0611397416352842</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.871585232588458</v>
+        <v>8.736254691387312</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.00031444957526</v>
+        <v>10.1146486241619</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.27989698856562</v>
+        <v>10.65085147857743</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.004146297205185</v>
+        <v>8.406780043026677</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4397702424093388</v>
+        <v>0.432588831999235</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4399720801098017</v>
+        <v>0.4432570626926456</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5532048552910651</v>
+        <v>0.5850941718314215</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4147588885604144</v>
+        <v>0.4437063904282666</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>14.25552314765342</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10.89058916154776</v>
+        <v>10.89058916154775</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4861331244220237</v>
@@ -1049,7 +1049,7 @@
         <v>0.6885258226807331</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5029623405370395</v>
+        <v>0.5029623405370391</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.879308090814426</v>
+        <v>3.579535687191767</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.41209280381134</v>
+        <v>11.02909155783337</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.744235969357428</v>
+        <v>8.99092517273353</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.596519250493213</v>
+        <v>6.500801922323027</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1689520110535198</v>
+        <v>0.1429751689495841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4049840535977568</v>
+        <v>0.4200975986938919</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4176241734417269</v>
+        <v>0.3913177644827666</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2578740449616274</v>
+        <v>0.2549058747579702</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.24179166165022</v>
+        <v>15.13440197941136</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.08004832102009</v>
+        <v>20.86304568508744</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.22759309661809</v>
+        <v>18.86789552885584</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.11458780112559</v>
+        <v>15.14156173276865</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.010717746809061</v>
+        <v>0.9559291321969291</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.0363935870884</v>
+        <v>1.043895346591347</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.055144923020548</v>
+        <v>1.060335963402701</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8112813078426395</v>
+        <v>0.8003281443645693</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10.355041126395</v>
+        <v>10.63706837185642</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>11.42261312622697</v>
+        <v>11.5419426244097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9.013871457923907</v>
+        <v>8.906872962503</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9.178500871210975</v>
+        <v>9.21800566940818</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6569079137837885</v>
+        <v>0.6905509134092247</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5467696559827221</v>
+        <v>0.5715597948632711</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6270113521686382</v>
+        <v>0.5910907559562673</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4924155509703576</v>
+        <v>0.4849669682984529</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.19826891510759</v>
+        <v>18.68317836152623</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.50053275145076</v>
+        <v>22.10499374659337</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.99241804365696</v>
+        <v>18.23619108162081</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22.09412258673676</v>
+        <v>22.13989490910462</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.191129155935225</v>
+        <v>2.119265352420782</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.946218351200502</v>
+        <v>1.864143924751686</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.282986784157069</v>
+        <v>2.409648787262531</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.941128832342956</v>
+        <v>2.978055525005115</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>7.926567555566696</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.93252142750028</v>
+        <v>7.932521427500284</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.42336489196487</v>
@@ -1249,7 +1249,7 @@
         <v>0.4198706142063679</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4061383702053185</v>
+        <v>0.4061383702053186</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.790566371965573</v>
+        <v>5.954224350130422</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.942468602832236</v>
+        <v>8.281397701492789</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.791616118812572</v>
+        <v>5.968460185827356</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.097213942025319</v>
+        <v>5.922806369039352</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2898704457529768</v>
+        <v>0.3000899192957888</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3345399731515749</v>
+        <v>0.3557873511872689</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.289488581034814</v>
+        <v>0.2998849839835392</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2944044475580228</v>
+        <v>0.286492309942609</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.961194353504245</v>
+        <v>10.06728364307205</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.47494665008332</v>
+        <v>12.64979061715612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.952101942633082</v>
+        <v>9.906145157087984</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.926432008191789</v>
+        <v>9.821448111197522</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5686862989195457</v>
+        <v>0.5709139094882895</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5865697761441282</v>
+        <v>0.5966784658627992</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5586193090919338</v>
+        <v>0.5495824683553129</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.537400910028685</v>
+        <v>0.5282344208110861</v>
       </c>
     </row>
     <row r="25">
